--- a/configs/VID-PRO-PTZ/assets/Board/Mainboard-BoM.xlsx
+++ b/configs/VID-PRO-PTZ/assets/Board/Mainboard-BoM.xlsx
@@ -49,7 +49,7 @@
     <t>XY-XH2.54-2A11</t>
   </si>
   <si>
-    <t>C1,C2,C3,C4,CFG,TOP</t>
+    <t>C1,C2,C3,C4,TOP</t>
   </si>
   <si>
     <t>HDR-TH_2P-P2.50-V-F-1</t>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
